--- a/SABER/data/questions.xlsx
+++ b/SABER/data/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UVUStudentLoaner\Desktop\REPOs\personal\playground\SABER\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB0B3B5-2F78-4CFC-8342-AA3FCB0DC236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BA2090-8B43-442C-990F-454089F386F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19CDF220-BA02-420E-91C8-74C40EFDADC3}"/>
+    <workbookView xWindow="5760" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{19CDF220-BA02-420E-91C8-74C40EFDADC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">Science Identity </t>
   </si>
@@ -129,9 +123,6 @@
   </si>
   <si>
     <t>I believe I can master science knowledge and skills.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am sure I can understand science. </t>
   </si>
   <si>
     <t>Grade Motivation</t>
@@ -225,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,16 +224,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -250,18 +258,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA1D263"/>
+      <color rgb="FF548516"/>
+      <color rgb="FF235332"/>
+      <color rgb="FF005C2B"/>
+      <color rgb="FF00843D"/>
+      <color rgb="FF4DA977"/>
+      <color rgb="FFC1C2C4"/>
+      <color rgb="FFDCDCDD"/>
+      <color rgb="FFB7DAB2"/>
+      <color rgb="FF81BE79"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -570,415 +708,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0356739-74DE-4918-A2AD-A156D3343270}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:A50"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="B2:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="93.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C7" s="16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B17" s="15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C17" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C22" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="D22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" t="s">
-        <v>60</v>
-      </c>
+    <row r="26" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="D18:D21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>